--- a/src/kraken_files/excel_files/XXBTZUSD.xlsx
+++ b/src/kraken_files/excel_files/XXBTZUSD.xlsx
@@ -484,13 +484,13 @@
         <v>0.000625</v>
       </c>
       <c r="D2" t="n">
-        <v>61653.49518384</v>
+        <v>62369.95593167999</v>
       </c>
       <c r="E2" t="n">
-        <v>63137.88694542</v>
+        <v>63871.59746034</v>
       </c>
       <c r="F2" t="n">
-        <v>63769.2658148742</v>
+        <v>64510.3134349434</v>
       </c>
       <c r="G2" t="n">
         <v>3.31785320718041</v>
@@ -507,13 +507,13 @@
         <v>0.0015625</v>
       </c>
       <c r="D3" t="n">
-        <v>58399.4423867904</v>
+        <v>59078.08855342079</v>
       </c>
       <c r="E3" t="n">
-        <v>60768.6646661052</v>
+        <v>61474.84300688039</v>
       </c>
       <c r="F3" t="n">
-        <v>61376.35131276625</v>
+        <v>62089.59143694919</v>
       </c>
       <c r="G3" t="n">
         <v>4.850253985946306</v>
@@ -530,16 +530,16 @@
         <v>0.00390625</v>
       </c>
       <c r="D4" t="n">
-        <v>53323.12002207435</v>
+        <v>53942.77544200244</v>
       </c>
       <c r="E4" t="n">
-        <v>57045.89234408978</v>
+        <v>57708.80922444141</v>
       </c>
       <c r="F4" t="n">
-        <v>57616.35126753068</v>
+        <v>58285.89731668583</v>
       </c>
       <c r="G4" t="n">
-        <v>7.451411189718549</v>
+        <v>7.451411189718538</v>
       </c>
     </row>
     <row r="5">
@@ -553,16 +553,16 @@
         <v>0.009765625</v>
       </c>
       <c r="D5" t="n">
-        <v>45404.05713575466</v>
+        <v>45931.68699085782</v>
       </c>
       <c r="E5" t="n">
-        <v>51224.97473992222</v>
+        <v>51820.24810764962</v>
       </c>
       <c r="F5" t="n">
-        <v>51737.22448732144</v>
+        <v>52338.45058872612</v>
       </c>
       <c r="G5" t="n">
-        <v>12.24102648397531</v>
+        <v>12.24102648397533</v>
       </c>
     </row>
     <row r="6">
@@ -576,13 +576,13 @@
         <v>0.0244140625</v>
       </c>
       <c r="D6" t="n">
-        <v>33050.3190312498</v>
+        <v>33434.3890052046</v>
       </c>
       <c r="E6" t="n">
-        <v>42137.64688558601</v>
+        <v>42627.31855642711</v>
       </c>
       <c r="F6" t="n">
-        <v>42559.02335444187</v>
+        <v>43053.59174199138</v>
       </c>
       <c r="G6" t="n">
         <v>22.34239316067306</v>
@@ -622,21 +622,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OZYQWP-AU46N-TA4QVG</t>
+          <t>ODMYS7-CCOOB-N3HQJR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66160.10000000001</v>
+        <v>66929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OC5MCW-YWFMS-JXBXVS</t>
+          <t>O2O4WE-HAEW3-WU5ZLR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65268.5</v>
+        <v>66026.89999999999</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ONTZRZ-J4WRC-LYIP6G</t>
+          <t>OHHBPF-D3S6N-4RTNW2</t>
         </is>
       </c>
     </row>
